--- a/data/quality_fr.xlsx
+++ b/data/quality_fr.xlsx
@@ -591,7 +591,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="B1" sqref="B1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/quality_fr.xlsx
+++ b/data/quality_fr.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="92">
   <si>
     <t>Barban, 2022</t>
   </si>
@@ -60,9 +61,6 @@
     <t>Lu, 2022</t>
   </si>
   <si>
-    <t>Ma, 2023</t>
-  </si>
-  <si>
     <t>Markandya, 2018</t>
   </si>
   <si>
@@ -129,12 +127,6 @@
     <t>Wang, 2022</t>
   </si>
   <si>
-    <t>Wang, 2023</t>
-  </si>
-  <si>
-    <t>Weyant, 2018</t>
-  </si>
-  <si>
     <t>Williams, 2018</t>
   </si>
   <si>
@@ -165,24 +157,128 @@
     <t>Zysk, 2021</t>
   </si>
   <si>
+    <t>Equity impact</t>
+  </si>
+  <si>
+    <t>Specification of target population</t>
+  </si>
+  <si>
+    <t>Demographic and exposure allocation</t>
+  </si>
+  <si>
+    <t>Correspondance with agreed-upon scenarios</t>
+  </si>
+  <si>
+    <t>Data sources</t>
+  </si>
+  <si>
+    <t>Defined timeframes</t>
+  </si>
+  <si>
+    <t>Describe exposure-response functions</t>
+  </si>
+  <si>
+    <t>Appropriate health metrics</t>
+  </si>
+  <si>
+    <t>Sensitivity analysis</t>
+  </si>
+  <si>
+    <t>Limitations and source of uncertainty</t>
+  </si>
+  <si>
+    <t>Adverse consequences of mitigation actions</t>
+  </si>
+  <si>
+    <t>Publicly shared data and code</t>
+  </si>
+  <si>
     <t>Article</t>
   </si>
   <si>
+    <t>Describe mitigation policies</t>
+  </si>
+  <si>
+    <t>Ma, 2023a</t>
+  </si>
+  <si>
+    <t>Luo, 2023</t>
+  </si>
+  <si>
+    <t>Hata, 2023</t>
+  </si>
+  <si>
+    <t>Wang, 2023b</t>
+  </si>
+  <si>
+    <t>Wang, 2023a</t>
+  </si>
+  <si>
+    <t>Nawaz, 2023</t>
+  </si>
+  <si>
+    <t>Ma, 2023b</t>
+  </si>
+  <si>
+    <t>Reddington, 2023</t>
+  </si>
+  <si>
+    <t>Cheng, 2023</t>
+  </si>
+  <si>
+    <t>Ortiz, 2023</t>
+  </si>
+  <si>
+    <t>Decisions regarding confidence assessment</t>
+  </si>
+  <si>
+    <t>Yes: The impacts are specified for more than a geodistribution parameter (age, sex, socio-demographique index…)
+Yes partially: The impacts are specified only for a geodistribution parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes : Equity impacts are explicit in the framework and results
+Yes partially : Explicitly discuss the equity implications of the results </t>
+  </si>
+  <si>
+    <t>Projections détaillées</t>
+  </si>
+  <si>
     <t>Équité des impacts</t>
   </si>
   <si>
+    <t>Population cible identifiée</t>
+  </si>
+  <si>
+    <t>Affectation démographique et de l'exposition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correspondance avec un scénario convenu </t>
+  </si>
+  <si>
     <t>Source des données</t>
   </si>
   <si>
+    <t>Horizons temporels définis</t>
+  </si>
+  <si>
+    <t>Relations exposition-réponse décrites</t>
+  </si>
+  <si>
+    <t>Métriques sanitaire adaptées</t>
+  </si>
+  <si>
+    <t>Analyses de sensibilités</t>
+  </si>
+  <si>
+    <t>Limites et sources d'incertitudes discutés</t>
+  </si>
+  <si>
     <t>Conséquences négatives des mesures d'atténuation</t>
   </si>
   <si>
     <t>Données et codes partagés publiquement</t>
   </si>
   <si>
-    <t xml:space="preserve">Correspondance avec un scénario convenu </t>
-  </si>
-  <si>
     <t>Oui</t>
   </si>
   <si>
@@ -192,47 +288,23 @@
     <t>Non</t>
   </si>
   <si>
+    <t xml:space="preserve">Oui partiellement </t>
+  </si>
+  <si>
     <t>Oui partiellement</t>
   </si>
   <si>
-    <t xml:space="preserve">Oui partiellement </t>
-  </si>
-  <si>
     <t>Pas clair</t>
   </si>
   <si>
     <t xml:space="preserve">Pas clair </t>
-  </si>
-  <si>
-    <t>Limites et sources d'incertitudes discutés</t>
-  </si>
-  <si>
-    <t>Projections détaillées</t>
-  </si>
-  <si>
-    <t>Population cible identifiée</t>
-  </si>
-  <si>
-    <t>Affectation démographique et de l'exposition</t>
-  </si>
-  <si>
-    <t>Horizons temporels définis</t>
-  </si>
-  <si>
-    <t>Relations exposition-réponse décrites</t>
-  </si>
-  <si>
-    <t>Analyses de sensibilités</t>
-  </si>
-  <si>
-    <t>Métriques sanitaire adaptées</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +314,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -279,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -307,6 +387,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,46 +696,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -660,43 +743,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -704,43 +787,43 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -748,43 +831,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N4" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -792,43 +875,43 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -836,43 +919,43 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="M6" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N6" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -880,43 +963,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -924,43 +1007,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M8" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -968,43 +1051,43 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M9" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -1012,43 +1095,43 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L10" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="M10" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N10" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1056,43 +1139,43 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M11" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N11" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1100,43 +1183,43 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="M12" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N12" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1144,43 +1227,43 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M13" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N13" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1188,1583 +1271,1979 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>59</v>
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L14" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M14" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N14" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L15" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M15" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N15" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L16" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M16" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L17" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="M17" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N17" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>56</v>
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>56</v>
+        <v>85</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L19" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M19" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N19" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L20" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M20" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N20" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L21" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M21" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N21" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L22" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="M22" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N22" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L23" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M23" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N23" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L24" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="M24" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N24" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L25" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M25" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N25" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L26" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="M26" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N26" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
+        <v>85</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L27" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M27" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N27" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L28" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M28" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N28" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L29" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="M29" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N29" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>88</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L31" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="M31" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N31" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L32" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="M32" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N32" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L33" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M33" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N33" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G34" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L34" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M34" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N34" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J35" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L35" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="M35" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N35" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I36" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J36" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L36" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="M36" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N36" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="L37" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M37" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N37" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="J38" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L38" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="M38" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N38" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" t="s">
+        <v>85</v>
+      </c>
+      <c r="H39" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" t="s">
+        <v>85</v>
+      </c>
+      <c r="J39" t="s">
+        <v>85</v>
+      </c>
+      <c r="K39" t="s">
+        <v>87</v>
+      </c>
+      <c r="L39" t="s">
+        <v>85</v>
+      </c>
+      <c r="M39" t="s">
+        <v>85</v>
+      </c>
+      <c r="N39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" t="s">
+        <v>85</v>
+      </c>
+      <c r="J40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K40" t="s">
+        <v>85</v>
+      </c>
+      <c r="L40" t="s">
+        <v>85</v>
+      </c>
+      <c r="M40" t="s">
+        <v>87</v>
+      </c>
+      <c r="N40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" t="s">
-        <v>54</v>
-      </c>
-      <c r="I39" t="s">
-        <v>54</v>
-      </c>
-      <c r="J39" t="s">
-        <v>59</v>
-      </c>
-      <c r="K39" t="s">
-        <v>54</v>
-      </c>
-      <c r="L39" t="s">
-        <v>54</v>
-      </c>
-      <c r="M39" t="s">
-        <v>56</v>
-      </c>
-      <c r="N39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" t="s">
+        <v>85</v>
+      </c>
+      <c r="J41" t="s">
+        <v>85</v>
+      </c>
+      <c r="K41" t="s">
+        <v>87</v>
+      </c>
+      <c r="L41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M41" t="s">
+        <v>87</v>
+      </c>
+      <c r="N41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I40" t="s">
-        <v>54</v>
-      </c>
-      <c r="J40" t="s">
-        <v>54</v>
-      </c>
-      <c r="K40" t="s">
-        <v>56</v>
-      </c>
-      <c r="L40" t="s">
-        <v>54</v>
-      </c>
-      <c r="M40" t="s">
-        <v>54</v>
-      </c>
-      <c r="N40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-      <c r="I41" t="s">
-        <v>54</v>
-      </c>
-      <c r="J41" t="s">
-        <v>54</v>
-      </c>
-      <c r="K41" t="s">
-        <v>54</v>
-      </c>
-      <c r="L41" t="s">
-        <v>54</v>
-      </c>
-      <c r="M41" t="s">
-        <v>56</v>
-      </c>
-      <c r="N41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H42" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I42" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J42" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L42" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="M42" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N42" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I43" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L43" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M43" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N43" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" t="s">
+        <v>85</v>
+      </c>
+      <c r="I44" t="s">
+        <v>85</v>
+      </c>
+      <c r="J44" t="s">
+        <v>85</v>
+      </c>
+      <c r="K44" t="s">
+        <v>87</v>
+      </c>
+      <c r="L44" t="s">
+        <v>85</v>
+      </c>
+      <c r="M44" t="s">
+        <v>87</v>
+      </c>
+      <c r="N44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" t="s">
+        <v>85</v>
+      </c>
+      <c r="I45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J45" t="s">
+        <v>85</v>
+      </c>
+      <c r="K45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L45" t="s">
+        <v>87</v>
+      </c>
+      <c r="M45" t="s">
+        <v>87</v>
+      </c>
+      <c r="N45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" t="s">
-        <v>54</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" t="s">
-        <v>54</v>
-      </c>
-      <c r="H44" t="s">
-        <v>54</v>
-      </c>
-      <c r="I44" t="s">
-        <v>54</v>
-      </c>
-      <c r="J44" t="s">
-        <v>54</v>
-      </c>
-      <c r="K44" t="s">
-        <v>56</v>
-      </c>
-      <c r="L44" t="s">
-        <v>54</v>
-      </c>
-      <c r="M44" t="s">
-        <v>56</v>
-      </c>
-      <c r="N44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" t="s">
-        <v>54</v>
-      </c>
-      <c r="H45" t="s">
-        <v>54</v>
-      </c>
-      <c r="I45" t="s">
-        <v>54</v>
-      </c>
-      <c r="J45" t="s">
-        <v>54</v>
-      </c>
-      <c r="K45" t="s">
-        <v>56</v>
-      </c>
-      <c r="L45" t="s">
-        <v>54</v>
-      </c>
-      <c r="M45" t="s">
-        <v>56</v>
-      </c>
-      <c r="N45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I46" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L46" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="M46" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N46" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I47" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="J47" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L47" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="M47" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N47" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I48" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J48" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L48" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="M48" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N48" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G49" t="s">
+        <v>85</v>
+      </c>
+      <c r="H49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I49" t="s">
+        <v>90</v>
+      </c>
+      <c r="J49" t="s">
+        <v>85</v>
+      </c>
+      <c r="K49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L49" t="s">
+        <v>87</v>
+      </c>
+      <c r="M49" t="s">
+        <v>89</v>
+      </c>
+      <c r="N49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" t="s">
+        <v>85</v>
+      </c>
+      <c r="H50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I50" t="s">
+        <v>87</v>
+      </c>
+      <c r="J50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K50" t="s">
+        <v>89</v>
+      </c>
+      <c r="L50" t="s">
+        <v>87</v>
+      </c>
+      <c r="M50" t="s">
+        <v>87</v>
+      </c>
+      <c r="N50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" t="s">
+        <v>85</v>
+      </c>
+      <c r="H51" t="s">
+        <v>85</v>
+      </c>
+      <c r="I51" t="s">
+        <v>85</v>
+      </c>
+      <c r="J51" t="s">
+        <v>85</v>
+      </c>
+      <c r="K51" t="s">
+        <v>87</v>
+      </c>
+      <c r="L51" t="s">
+        <v>87</v>
+      </c>
+      <c r="M51" t="s">
+        <v>87</v>
+      </c>
+      <c r="N51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H52" t="s">
+        <v>85</v>
+      </c>
+      <c r="I52" t="s">
+        <v>85</v>
+      </c>
+      <c r="J52" t="s">
+        <v>85</v>
+      </c>
+      <c r="K52" t="s">
+        <v>87</v>
+      </c>
+      <c r="L52" t="s">
+        <v>85</v>
+      </c>
+      <c r="M52" t="s">
+        <v>87</v>
+      </c>
+      <c r="N52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" t="s">
+        <v>85</v>
+      </c>
+      <c r="I53" t="s">
+        <v>85</v>
+      </c>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+      <c r="K53" t="s">
+        <v>85</v>
+      </c>
+      <c r="L53" t="s">
+        <v>85</v>
+      </c>
+      <c r="M53" t="s">
+        <v>87</v>
+      </c>
+      <c r="N53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" t="s">
+        <v>85</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G54" t="s">
+        <v>85</v>
+      </c>
+      <c r="H54" t="s">
+        <v>85</v>
+      </c>
+      <c r="I54" t="s">
+        <v>85</v>
+      </c>
+      <c r="J54" t="s">
+        <v>85</v>
+      </c>
+      <c r="K54" t="s">
+        <v>87</v>
+      </c>
+      <c r="L54" t="s">
+        <v>87</v>
+      </c>
+      <c r="M54" t="s">
+        <v>87</v>
+      </c>
+      <c r="N54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" t="s">
+        <v>85</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G55" t="s">
+        <v>85</v>
+      </c>
+      <c r="H55" t="s">
+        <v>85</v>
+      </c>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+      <c r="J55" t="s">
+        <v>85</v>
+      </c>
+      <c r="K55" t="s">
+        <v>85</v>
+      </c>
+      <c r="L55" t="s">
+        <v>85</v>
+      </c>
+      <c r="M55" t="s">
+        <v>87</v>
+      </c>
+      <c r="N55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G56" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56" t="s">
+        <v>85</v>
+      </c>
+      <c r="J56" t="s">
+        <v>85</v>
+      </c>
+      <c r="K56" t="s">
+        <v>87</v>
+      </c>
+      <c r="L56" t="s">
+        <v>85</v>
+      </c>
+      <c r="M56" t="s">
+        <v>87</v>
+      </c>
+      <c r="N56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="37.21875" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="G1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C49" t="s">
+      <c r="N1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" t="s">
-        <v>54</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" t="s">
-        <v>54</v>
-      </c>
-      <c r="H49" t="s">
-        <v>54</v>
-      </c>
-      <c r="I49" t="s">
-        <v>54</v>
-      </c>
-      <c r="J49" t="s">
-        <v>54</v>
-      </c>
-      <c r="K49" t="s">
-        <v>56</v>
-      </c>
-      <c r="L49" t="s">
-        <v>56</v>
-      </c>
-      <c r="M49" t="s">
-        <v>56</v>
-      </c>
-      <c r="N49" t="s">
-        <v>56</v>
+    </row>
+    <row r="2" spans="1:15" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
